--- a/daily_tasks/daily_tasks_jan.xlsx
+++ b/daily_tasks/daily_tasks_jan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">created login form in angular js 5,write code for routing and successfully did login and home page with headers and footers in angular js 5.tried to have sesssions still not successful.running on postman but not in real code. </t>
+  </si>
+  <si>
+    <t>uses auth guard for angular js 5 route restrictions.created table for products and created product list web service</t>
+  </si>
+  <si>
+    <t>showing product list,filter to product list,add to cart,remove from cart, creating main component for  navigation.studied for communication betwenn two components siblings not done yet</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C14"/>
+  <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +589,22 @@
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>43118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>43119</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
